--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-math.xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-math.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E59EF59-1B0A-41C8-B002-FF7D3994ED5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004FCB9-67D1-6C46-8ADA-9863041ABA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Sl.No</t>
   </si>
@@ -61,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,6 +98,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -162,8 +170,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,27 +210,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:srgbClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -230,57 +224,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Metrics 6</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Apache Common Math</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>vs Metrics 5</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Maintenance Effort vs Defect Density</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -296,27 +261,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:srgbClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -338,93 +289,83 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Metrics 5</c:v>
+                  <c:v>Metrics 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>124.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>935.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1436.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$15:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.35630104697692266</c:v>
+                  <c:v>0.50134737100000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50134737105972293</c:v>
+                  <c:v>0.30830053899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42078955421809644</c:v>
+                  <c:v>0.35630104699999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30830053861917628</c:v>
+                  <c:v>9.5415663999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35156290390958628</c:v>
+                  <c:v>0.35156290400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3147614614783286E-2</c:v>
+                  <c:v>0.42078955400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5415664157492586E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$15:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>236.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>124.96000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>935.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>215.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1436.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>262.73</c:v>
+                  <c:v>3.3147614999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFD1-4644-87D3-F60ABA53AFD8}"/>
+              <c16:uniqueId val="{00000000-5D94-8641-8AFC-78376A799F6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -444,11 +385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="834321056"/>
-        <c:axId val="585800400"/>
+        <c:axId val="1402803744"/>
+        <c:axId val="1383735280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="834321056"/>
+        <c:axId val="1402803744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,6 +409,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maintenance Effort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -505,12 +501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585800400"/>
+        <c:crossAx val="1383735280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585800400"/>
+        <c:axId val="1383735280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,6 +526,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Defect Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -567,7 +618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834321056"/>
+        <c:crossAx val="1402803744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1183,23 +1234,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6371BD-DCC7-4DD0-976E-1399BD3B14EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EE647E-B5B0-8A48-B328-9C8AA0D16F66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,15 +1475,15 @@
   <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1479,7 +1530,7 @@
         <v>0.35630104697692266</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1503,7 +1554,7 @@
         <v>0.50134737105972293</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1527,7 +1578,7 @@
         <v>0.42078955421809644</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1551,7 +1602,7 @@
         <v>0.30830053861917628</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1575,7 +1626,7 @@
         <v>0.35156290390958628</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1599,7 +1650,7 @@
         <v>3.3147614614783286E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1623,104 +1674,91 @@
         <v>9.5415664157492586E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="str">
-        <f>G3</f>
-        <v>Metrics 6</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f>D3</f>
-        <v>Metrics 5</v>
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="9">
-        <f>G4</f>
-        <v>0.35630104697692266</v>
-      </c>
-      <c r="D15" s="9">
-        <f>D4</f>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <v>124.96</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.50134737100000004</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <v>215.68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.30830053899999998</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
         <v>236.73</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="9">
-        <f>G5</f>
-        <v>0.50134737105972293</v>
-      </c>
-      <c r="D16" s="9">
-        <f>D5</f>
-        <v>124.96000000000001</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="9">
-        <f>G6</f>
-        <v>0.42078955421809644</v>
-      </c>
-      <c r="D17" s="9">
-        <f>D6</f>
+      <c r="C17" s="10">
+        <v>0.35630104699999998</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <v>262.73</v>
+      </c>
+      <c r="C18" s="10">
+        <v>9.5415663999999997E-2</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <v>292.11</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.35156290400000001</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
         <v>935.87</v>
       </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="9">
-        <f>G7</f>
-        <v>0.30830053861917628</v>
-      </c>
-      <c r="D18" s="9">
-        <f>D7</f>
-        <v>215.68</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="9">
-        <f>G8</f>
-        <v>0.35156290390958628</v>
-      </c>
-      <c r="D19" s="9">
-        <f>D8</f>
-        <v>292.11</v>
-      </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="9">
-        <f>G9</f>
-        <v>3.3147614614783286E-2</v>
-      </c>
-      <c r="D20" s="9">
-        <f>D9</f>
+      <c r="C20" s="10">
+        <v>0.42078955400000001</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
         <v>1436.02</v>
       </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="9">
-        <f>G10</f>
-        <v>9.5415664157492586E-2</v>
-      </c>
-      <c r="D21" s="9">
-        <f>D10</f>
-        <v>262.73</v>
+      <c r="C21" s="10">
+        <v>3.3147614999999998E-2</v>
       </c>
       <c r="F21"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:D21">
+    <sortCondition ref="B14"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-math.xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-math.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004FCB9-67D1-6C46-8ADA-9863041ABA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C578F-4B3B-8444-8C0A-037FFECBD0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1698,6 +1698,10 @@
       </c>
       <c r="C15" s="10">
         <v>0.50134737100000004</v>
+      </c>
+      <c r="D15">
+        <f>CORREL(B15:B21,C15:C21)</f>
+        <v>-0.50064917858441593</v>
       </c>
       <c r="F15"/>
     </row>
